--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor1.0_TauMaxFactor1.2</t>
+          <t>H25_BetaMinFactor0.75_TauMaxFactor1.2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>38.75</v>
       </c>
       <c r="C2" t="n">
-        <v>107.5</v>
+        <v>38.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6869087219238281</v>
+        <v>0.5838339328765869</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1664</v>
+        <v>1764</v>
       </c>
       <c r="G2" t="n">
         <v>6968</v>
@@ -508,17 +508,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor1.0_TauMaxFactor1.4</t>
+          <t>H25_BetaMinFactor0.75_TauMaxFactor1.4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163</v>
+        <v>38.75</v>
       </c>
       <c r="C3" t="n">
-        <v>107.5</v>
+        <v>38.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3719308376312256</v>
+        <v>0.3807945251464844</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1664</v>
+        <v>1759</v>
       </c>
       <c r="G3" t="n">
         <v>6968</v>
@@ -538,17 +538,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor1.0_TauMaxFactor1.5999999999999999</t>
+          <t>H25_BetaMinFactor0.75_TauMaxFactor1.5999999999999999</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125</v>
+        <v>38.75</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5</v>
+        <v>38.75</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4751782417297363</v>
+        <v>0.3759605884552002</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1664</v>
+        <v>1754</v>
       </c>
       <c r="G4" t="n">
         <v>6968</v>
@@ -568,17 +568,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor1.0_TauMaxFactor1.7999999999999998</t>
+          <t>H25_BetaMinFactor0.75_TauMaxFactor1.7999999999999998</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125</v>
+        <v>38.75</v>
       </c>
       <c r="C5" t="n">
-        <v>107.5</v>
+        <v>38.75</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3722949028015137</v>
+        <v>0.3742098808288574</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1664</v>
+        <v>1749</v>
       </c>
       <c r="G5" t="n">
         <v>6968</v>
@@ -598,17 +598,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.75_TauMaxFactor1.2</t>
+          <t>H25_BetaMinFactor0.5_TauMaxFactor1.2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139</v>
+        <v>32.5</v>
       </c>
       <c r="C6" t="n">
-        <v>107.3481781376518</v>
+        <v>32.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.575247049331665</v>
+        <v>0.4745895862579346</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1664</v>
+        <v>1764</v>
       </c>
       <c r="G6" t="n">
         <v>6968</v>
@@ -628,17 +628,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.75_TauMaxFactor1.4</t>
+          <t>H25_BetaMinFactor0.5_TauMaxFactor1.4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139</v>
+        <v>32.5</v>
       </c>
       <c r="C7" t="n">
-        <v>107.3481781376518</v>
+        <v>32.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5750951766967773</v>
+        <v>0.4716882705688477</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1664</v>
+        <v>1759</v>
       </c>
       <c r="G7" t="n">
         <v>6968</v>
@@ -658,17 +658,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.75_TauMaxFactor1.5999999999999999</t>
+          <t>H25_BetaMinFactor0.5_TauMaxFactor1.5999999999999999</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114</v>
+        <v>32.5</v>
       </c>
       <c r="C8" t="n">
-        <v>107.3481781376518</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4744446277618408</v>
+        <v>0.3743956089019775</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1664</v>
+        <v>1754</v>
       </c>
       <c r="G8" t="n">
         <v>6968</v>
@@ -688,17 +688,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.75_TauMaxFactor1.7999999999999998</t>
+          <t>H25_BetaMinFactor0.5_TauMaxFactor1.7999999999999998</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>32.5</v>
       </c>
       <c r="C9" t="n">
-        <v>107.3481781376518</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4728517532348633</v>
+        <v>0.3752169609069824</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1664</v>
+        <v>1749</v>
       </c>
       <c r="G9" t="n">
         <v>6968</v>
@@ -718,17 +718,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.5_TauMaxFactor1.2</t>
+          <t>H50_BetaMinFactor0.75_TauMaxFactor1.2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132</v>
+        <v>265.1249962223037</v>
       </c>
       <c r="C10" t="n">
-        <v>107.1951219512195</v>
+        <v>211.5421231991634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4846181869506836</v>
+        <v>4.534271478652954</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -736,29 +736,29 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1664</v>
+        <v>3489</v>
       </c>
       <c r="G10" t="n">
-        <v>6968</v>
+        <v>13668</v>
       </c>
       <c r="H10" t="n">
-        <v>5512</v>
+        <v>10812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.5_TauMaxFactor1.4</t>
+          <t>H50_BetaMinFactor0.75_TauMaxFactor1.4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132</v>
+        <v>265.1249879123914</v>
       </c>
       <c r="C11" t="n">
-        <v>107.1951219512195</v>
+        <v>211.5421231991634</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4776430130004883</v>
+        <v>7.458210706710815</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -766,29 +766,29 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1664</v>
+        <v>3484</v>
       </c>
       <c r="G11" t="n">
-        <v>6968</v>
+        <v>13668</v>
       </c>
       <c r="H11" t="n">
-        <v>5512</v>
+        <v>10812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.5_TauMaxFactor1.5999999999999999</t>
+          <t>H50_BetaMinFactor0.75_TauMaxFactor1.5999999999999999</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112.9999983437191</v>
+        <v>226.125</v>
       </c>
       <c r="C12" t="n">
-        <v>107.1951219512195</v>
+        <v>211.5421231991634</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3740670680999756</v>
+        <v>1.52189302444458</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -796,29 +796,29 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1664</v>
+        <v>3479</v>
       </c>
       <c r="G12" t="n">
-        <v>6968</v>
+        <v>13668</v>
       </c>
       <c r="H12" t="n">
-        <v>5512</v>
+        <v>10812</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>H25_BetaMinFactor0.5_TauMaxFactor1.7999999999999998</t>
+          <t>H50_BetaMinFactor0.75_TauMaxFactor1.7999999999999998</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113</v>
+        <v>226.1249977043292</v>
       </c>
       <c r="C13" t="n">
-        <v>107.1951219512195</v>
+        <v>211.5421231991634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4760196208953857</v>
+        <v>1.801145553588867</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -826,13 +826,853 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1664</v>
+        <v>3474</v>
       </c>
       <c r="G13" t="n">
-        <v>6968</v>
+        <v>13668</v>
       </c>
       <c r="H13" t="n">
-        <v>5512</v>
+        <v>10812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>H50_BetaMinFactor0.5_TauMaxFactor1.2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>255.75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>211.3488439515837</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.014661312103271</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3489</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13668</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>H50_BetaMinFactor0.5_TauMaxFactor1.4</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>255.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>211.3488439515837</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.711589574813843</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3484</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13668</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10812</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>H50_BetaMinFactor0.5_TauMaxFactor1.5999999999999999</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>224.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>211.3488439515837</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.785291910171509</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3479</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13668</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>H50_BetaMinFactor0.5_TauMaxFactor1.7999999999999998</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>224.75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>211.3488439515837</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.504920959472656</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3474</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13668</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10812</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.75_TauMaxFactor1.2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>314.2669342992799</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.884352684020996</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>5214</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.75_TauMaxFactor1.4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>361.4999973533018</v>
+      </c>
+      <c r="C19" t="n">
+        <v>314.26693429928</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.037465333938599</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5209</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.75_TauMaxFactor1.5999999999999999</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>336.375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>314.2669342992799</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.004487991333008</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>5204</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.75_TauMaxFactor1.7999999999999998</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>336.375</v>
+      </c>
+      <c r="C21" t="n">
+        <v>314.2669342992799</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.960294723510742</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>5199</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.5_TauMaxFactor1.2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>314.0756710094074</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.797528743743896</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>5214</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H22" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.5_TauMaxFactor1.4</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>314.0756710094074</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15.92746520042419</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>5209</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.5_TauMaxFactor1.5999999999999999</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>314.0756710094074</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.739192962646484</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>5204</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>H75_BetaMinFactor0.5_TauMaxFactor1.7999999999999998</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>314.0756710094074</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.623315334320068</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>5199</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20368</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16112</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.75_TauMaxFactor1.2</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>465</v>
+      </c>
+      <c r="C26" t="n">
+        <v>418.1142731618773</v>
+      </c>
+      <c r="D26" t="n">
+        <v>128.7314183712006</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>6939</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.75_TauMaxFactor1.4</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>465</v>
+      </c>
+      <c r="C27" t="n">
+        <v>418.1142731618773</v>
+      </c>
+      <c r="D27" t="n">
+        <v>887.2368774414062</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>6934</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.75_TauMaxFactor1.5999999999999999</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>418.1142731618773</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26.39289975166321</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>6929</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.75_TauMaxFactor1.7999999999999998</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>418.1142731618773</v>
+      </c>
+      <c r="D29" t="n">
+        <v>35.23202466964722</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>6924</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.5_TauMaxFactor1.2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="C30" t="n">
+        <v>417.9245180727557</v>
+      </c>
+      <c r="D30" t="n">
+        <v>57.40990400314331</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>6939</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.5_TauMaxFactor1.4</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>417.9245180727556</v>
+      </c>
+      <c r="D31" t="n">
+        <v>229.1291348934174</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>6934</v>
+      </c>
+      <c r="G31" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.5_TauMaxFactor1.5999999999999999</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>446</v>
+      </c>
+      <c r="C32" t="n">
+        <v>417.9245180727557</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.54799127578735</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>6929</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>H100_BetaMinFactor0.5_TauMaxFactor1.7999999999999998</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>446</v>
+      </c>
+      <c r="C33" t="n">
+        <v>417.9245180727557</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23.37532639503479</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>6924</v>
+      </c>
+      <c r="G33" t="n">
+        <v>27068</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.75_TauMaxFactor1.2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>465</v>
+      </c>
+      <c r="C34" t="n">
+        <v>418.1142731618773</v>
+      </c>
+      <c r="D34" t="n">
+        <v>138.1985020637512</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>8664</v>
+      </c>
+      <c r="G34" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H34" t="n">
+        <v>26712</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.75_TauMaxFactor1.4</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>465</v>
+      </c>
+      <c r="C35" t="n">
+        <v>418.1142731618773</v>
+      </c>
+      <c r="D35" t="n">
+        <v>400.3182113170624</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>8659</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H35" t="n">
+        <v>26712</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.75_TauMaxFactor1.5999999999999999</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>448.4999896015102</v>
+      </c>
+      <c r="C36" t="n">
+        <v>418.1142731618772</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.25535702705383</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>8654</v>
+      </c>
+      <c r="G36" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H36" t="n">
+        <v>26712</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.75_TauMaxFactor1.7999999999999998</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>418.1142731618773</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27.45662045478821</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>8649</v>
+      </c>
+      <c r="G37" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H37" t="n">
+        <v>26712</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.5_TauMaxFactor1.2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>417.9245180727557</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60.99159979820251</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>8664</v>
+      </c>
+      <c r="G38" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26712</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.5_TauMaxFactor1.4</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>417.9245180727557</v>
+      </c>
+      <c r="D39" t="n">
+        <v>291.3626453876495</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>8659</v>
+      </c>
+      <c r="G39" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H39" t="n">
+        <v>26712</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.5_TauMaxFactor1.5999999999999999</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>446</v>
+      </c>
+      <c r="C40" t="n">
+        <v>417.9245180727556</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8.364356994628906</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>8654</v>
+      </c>
+      <c r="G40" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H40" t="n">
+        <v>26712</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>H125_BetaMinFactor0.5_TauMaxFactor1.7999999999999998</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>445.9999985789474</v>
+      </c>
+      <c r="C41" t="n">
+        <v>417.9245180727563</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.70634841918945</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>8649</v>
+      </c>
+      <c r="G41" t="n">
+        <v>33768</v>
+      </c>
+      <c r="H41" t="n">
+        <v>26712</v>
       </c>
     </row>
   </sheetData>
